--- a/settings/data/waza.xlsx
+++ b/settings/data/waza.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\touhou_survivors\settings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4BB558-FA33-4DDC-8693-FC5F9D6BEBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9422671-9C4E-4B2E-9327-FAD724CA447F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4560" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unlock" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="126">
   <si>
     <t>int</t>
   </si>
@@ -668,6 +668,14 @@
   </si>
   <si>
     <t>"发射黑洞（并没有很黑）","属性上升","属性上升","属性上升","属性上升","属性上升","属性上升","属性上升"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>waza_alice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>clock</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1062,25 +1070,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="25" max="25" width="18.75" customWidth="1"/>
-    <col min="26" max="26" width="19.5" customWidth="1"/>
+    <col min="25" max="25" width="18.77734375" customWidth="1"/>
+    <col min="26" max="26" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1166,7 +1174,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>68</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1415,7 +1423,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1490,7 +1498,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -1576,7 +1584,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1660,7 +1668,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1686,7 +1694,7 @@
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="J8" t="s">
         <v>84</v>
@@ -1744,7 +1752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1828,7 +1836,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1914,7 +1922,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
